--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H2">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5177623333333333</v>
+        <v>1.027065666666667</v>
       </c>
       <c r="N2">
-        <v>1.553287</v>
+        <v>3.081197</v>
       </c>
       <c r="O2">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="P2">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="Q2">
-        <v>32.72841361263866</v>
+        <v>13.68852339571344</v>
       </c>
       <c r="R2">
-        <v>294.555722513748</v>
+        <v>123.196710561421</v>
       </c>
       <c r="S2">
-        <v>0.04282118378237101</v>
+        <v>0.0269783719002031</v>
       </c>
       <c r="T2">
-        <v>0.04282118378237101</v>
+        <v>0.02697837190020309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H3">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.29561</v>
       </c>
       <c r="O3">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="P3">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="Q3">
-        <v>195.8624316444933</v>
+        <v>41.29666975608111</v>
       </c>
       <c r="R3">
-        <v>1762.76188480044</v>
+        <v>371.67002780473</v>
       </c>
       <c r="S3">
-        <v>0.2562623804739536</v>
+        <v>0.08139058412014774</v>
       </c>
       <c r="T3">
-        <v>0.2562623804739536</v>
+        <v>0.08139058412014774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H4">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.335759666666666</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N4">
-        <v>7.007278999999999</v>
+        <v>7.007279</v>
       </c>
       <c r="O4">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762942</v>
       </c>
       <c r="P4">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762941</v>
       </c>
       <c r="Q4">
-        <v>147.6463302732573</v>
+        <v>31.13053223529411</v>
       </c>
       <c r="R4">
-        <v>1328.816972459316</v>
+        <v>280.174790117647</v>
       </c>
       <c r="S4">
-        <v>0.1931774243094476</v>
+        <v>0.06135439534391448</v>
       </c>
       <c r="T4">
-        <v>0.1931774243094476</v>
+        <v>0.06135439534391447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5177623333333333</v>
+        <v>1.027065666666667</v>
       </c>
       <c r="N5">
-        <v>1.553287</v>
+        <v>3.081197</v>
       </c>
       <c r="O5">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="P5">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="Q5">
-        <v>22.42276857750533</v>
+        <v>44.47920266679866</v>
       </c>
       <c r="R5">
-        <v>201.804917197548</v>
+        <v>400.3128240011879</v>
       </c>
       <c r="S5">
-        <v>0.02933748960555005</v>
+        <v>0.08766295945004351</v>
       </c>
       <c r="T5">
-        <v>0.02933748960555005</v>
+        <v>0.0876629594500435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.29561</v>
       </c>
       <c r="O6">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="P6">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="Q6">
         <v>134.1885381238266</v>
@@ -818,10 +818,10 @@
         <v>1207.69684311444</v>
       </c>
       <c r="S6">
-        <v>0.1755695256267819</v>
+        <v>0.2644688679410693</v>
       </c>
       <c r="T6">
-        <v>0.1755695256267819</v>
+        <v>0.2644688679410693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.335759666666666</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N7">
-        <v>7.007278999999999</v>
+        <v>7.007279</v>
       </c>
       <c r="O7">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762942</v>
       </c>
       <c r="P7">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762941</v>
       </c>
       <c r="Q7">
-        <v>101.1549027159906</v>
+        <v>101.1549027159907</v>
       </c>
       <c r="R7">
-        <v>910.3941244439158</v>
+        <v>910.394124443916</v>
       </c>
       <c r="S7">
-        <v>0.1323489959200644</v>
+        <v>0.1993636936658518</v>
       </c>
       <c r="T7">
-        <v>0.1323489959200644</v>
+        <v>0.1993636936658517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>21.891734</v>
       </c>
       <c r="H8">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5177623333333333</v>
+        <v>1.027065666666667</v>
       </c>
       <c r="N8">
-        <v>1.553287</v>
+        <v>3.081197</v>
       </c>
       <c r="O8">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="P8">
-        <v>0.08698878192060831</v>
+        <v>0.1589549798736964</v>
       </c>
       <c r="Q8">
-        <v>11.33471527655267</v>
+        <v>22.48424837519934</v>
       </c>
       <c r="R8">
-        <v>102.012437488974</v>
+        <v>202.358235376794</v>
       </c>
       <c r="S8">
-        <v>0.01483010853268725</v>
+        <v>0.04431364852344979</v>
       </c>
       <c r="T8">
-        <v>0.01483010853268724</v>
+        <v>0.04431364852344978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>21.891734</v>
       </c>
       <c r="H9">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.29561</v>
       </c>
       <c r="O9">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="P9">
-        <v>0.5205823464105641</v>
+        <v>0.4795485327500095</v>
       </c>
       <c r="Q9">
-        <v>67.83234049591333</v>
+        <v>67.83234049591334</v>
       </c>
       <c r="R9">
-        <v>610.49106446322</v>
+        <v>610.4910644632201</v>
       </c>
       <c r="S9">
-        <v>0.0887504403098287</v>
+        <v>0.1336890806887924</v>
       </c>
       <c r="T9">
-        <v>0.08875044030982869</v>
+        <v>0.1336890806887924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>21.891734</v>
       </c>
       <c r="H10">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.335759666666666</v>
+        <v>2.335759666666667</v>
       </c>
       <c r="N10">
-        <v>7.007278999999999</v>
+        <v>7.007279</v>
       </c>
       <c r="O10">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762942</v>
       </c>
       <c r="P10">
-        <v>0.3924288716688276</v>
+        <v>0.3614964873762941</v>
       </c>
       <c r="Q10">
-        <v>51.13382931059532</v>
+        <v>51.13382931059534</v>
       </c>
       <c r="R10">
-        <v>460.2044637953579</v>
+        <v>460.2044637953581</v>
       </c>
       <c r="S10">
-        <v>0.06690245143931556</v>
+        <v>0.1007783983665279</v>
       </c>
       <c r="T10">
-        <v>0.06690245143931554</v>
+        <v>0.1007783983665279</v>
       </c>
     </row>
   </sheetData>
